--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_YORK_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/NEW_YORK_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1511"/>
+  <dimension ref="A1:D1505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C27">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C35">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C39">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C58">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C62">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C69">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C93">
@@ -1865,7 +1865,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1922,7 +1922,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C117">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C138">
@@ -2278,12 +2278,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C144">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C147">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C148">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C155">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C163">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C167">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C173">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C179">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C193">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C202">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C204">
@@ -3135,7 +3135,7 @@
         <v>36</v>
       </c>
       <c r="D209">
-        <v>0.0009609481354936871</v>
+        <v>0.0009609481354936872</v>
       </c>
     </row>
     <row r="210">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C215">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C226">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C234">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C248">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C252">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C256">
@@ -3874,7 +3874,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C266">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C268">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C270">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C271">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C272">
@@ -3978,7 +3978,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C274">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C279">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,14 +4100,14 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C283">
         <v>339</v>
       </c>
       <c r="D283">
-        <v>0.009048928275898887</v>
+        <v>0.009048928275898888</v>
       </c>
     </row>
     <row r="284">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C288">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C291">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C294">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C297">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C303">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C307">
@@ -4425,7 +4425,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C308">
@@ -4503,7 +4503,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C314">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C315">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C317">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C320">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C323">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C336">
@@ -4815,7 +4815,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C338">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C340">
@@ -4867,7 +4867,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C342">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C346">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C347">
@@ -5030,7 +5030,7 @@
         <v>36</v>
       </c>
       <c r="D354">
-        <v>0.0009609481354936871</v>
+        <v>0.0009609481354936872</v>
       </c>
     </row>
     <row r="355">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C359">
@@ -5184,7 +5184,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C366">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C372">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C377">
@@ -5379,7 +5379,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C381">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C384">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C391">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C392">
@@ -5535,7 +5535,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C393">
@@ -5561,7 +5561,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C395">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C396">
@@ -5587,7 +5587,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C397">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C399">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C405">
@@ -5743,7 +5743,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C409">
@@ -5769,7 +5769,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C411">
@@ -5782,7 +5782,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C412">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C415">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C423">
@@ -5938,7 +5938,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C424">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C425">
@@ -6003,7 +6003,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C429">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C430">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C435">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C438">
@@ -6138,7 +6138,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C439">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C445">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C447">
@@ -6268,7 +6268,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C449">
@@ -6307,7 +6307,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C452">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C455">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C463">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C464">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C468">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C471">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C476">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C477">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C479">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C480">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C482">
@@ -6949,7 +6949,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C501">
@@ -7864,7 +7864,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C571">
@@ -8020,7 +8020,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C583">
@@ -8098,7 +8098,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C589">
@@ -8124,7 +8124,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C591">
@@ -8228,7 +8228,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C599">
@@ -8420,7 +8420,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C613">
@@ -8490,7 +8490,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C618">
@@ -8529,7 +8529,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C621">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C625">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C626">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C628">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C629">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C632">
@@ -8685,7 +8685,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C633">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C634">
@@ -8711,7 +8711,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C635">
@@ -8724,7 +8724,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C636">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C637">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C639">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C642">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C654">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C656">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C658">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C659">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C660">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C661">
@@ -9062,7 +9062,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C662">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C663">
@@ -9088,7 +9088,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C664">
@@ -9101,7 +9101,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C665">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C670">
@@ -9335,7 +9335,7 @@
     <row r="683">
       <c r="B683" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C683">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C686">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C691">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C721">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C729">
@@ -10063,7 +10063,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C739">
@@ -10076,7 +10076,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C740">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C770">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C784">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C785">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C802">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C808">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C821">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C822">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C834">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C849">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C855">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C857">
@@ -11714,7 +11714,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C866">
@@ -11805,7 +11805,7 @@
     <row r="873">
       <c r="B873" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C873">
@@ -12533,7 +12533,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C929">
@@ -12728,7 +12728,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C944">
@@ -12741,7 +12741,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C945">
@@ -12754,7 +12754,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C946">
@@ -12767,7 +12767,7 @@
     <row r="947">
       <c r="B947" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C947">
@@ -12780,7 +12780,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C948">
@@ -12819,7 +12819,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C951">
@@ -12845,7 +12845,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C953">
@@ -12858,7 +12858,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C954">
@@ -12897,7 +12897,7 @@
     <row r="957">
       <c r="B957" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C957">
@@ -12910,7 +12910,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C958">
@@ -12923,7 +12923,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C959">
@@ -12936,7 +12936,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C960">
@@ -12949,7 +12949,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C961">
@@ -12975,7 +12975,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C963">
@@ -12988,7 +12988,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C964">
@@ -13001,7 +13001,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C965">
@@ -13040,7 +13040,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerrero</t>
+          <t>Yutanduchi De Guerrero</t>
         </is>
       </c>
       <c r="C968">
@@ -13092,7 +13092,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C972">
@@ -13435,7 +13435,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C998">
@@ -13500,7 +13500,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1003">
@@ -13630,7 +13630,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1013">
@@ -13812,7 +13812,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1027">
@@ -13825,7 +13825,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1028">
@@ -13923,7 +13923,7 @@
         <v>36</v>
       </c>
       <c r="D1035">
-        <v>0.0009609481354936871</v>
+        <v>0.0009609481354936872</v>
       </c>
     </row>
     <row r="1036">
@@ -14020,7 +14020,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1043">
@@ -14033,7 +14033,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1044">
@@ -14098,7 +14098,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1049">
@@ -14124,7 +14124,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1051">
@@ -14176,7 +14176,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1055">
@@ -14306,7 +14306,7 @@
     <row r="1065">
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1065">
@@ -14319,7 +14319,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1066">
@@ -14488,14 +14488,14 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1079">
         <v>36</v>
       </c>
       <c r="D1079">
-        <v>0.0009609481354936871</v>
+        <v>0.0009609481354936872</v>
       </c>
     </row>
     <row r="1080">
@@ -14618,7 +14618,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1089">
@@ -14813,7 +14813,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1104">
@@ -14865,7 +14865,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1108">
@@ -14878,14 +14878,14 @@
     <row r="1109">
       <c r="B1109" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1109">
         <v>36</v>
       </c>
       <c r="D1109">
-        <v>0.0009609481354936871</v>
+        <v>0.0009609481354936872</v>
       </c>
     </row>
     <row r="1110">
@@ -14995,7 +14995,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1118">
@@ -15028,7 +15028,7 @@
         <v>339</v>
       </c>
       <c r="D1120">
-        <v>0.009048928275898887</v>
+        <v>0.009048928275898888</v>
       </c>
     </row>
     <row r="1121">
@@ -15099,7 +15099,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1126">
@@ -15112,7 +15112,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1127">
@@ -15125,7 +15125,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1128">
@@ -15203,7 +15203,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1134">
@@ -15229,7 +15229,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1136">
@@ -15242,7 +15242,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1137">
@@ -15307,7 +15307,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1142">
@@ -15463,7 +15463,7 @@
     <row r="1154">
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1154">
@@ -15489,7 +15489,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1156">
@@ -15541,7 +15541,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1160">
@@ -15619,7 +15619,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1166">
@@ -15832,7 +15832,7 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1182">
@@ -15858,7 +15858,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1184">
@@ -15884,7 +15884,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1186">
@@ -15897,7 +15897,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1187">
@@ -15936,7 +15936,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1190">
@@ -16037,7 +16037,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1197">
@@ -16102,7 +16102,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1202">
@@ -16206,7 +16206,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1210">
@@ -16310,7 +16310,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1218">
@@ -16323,7 +16323,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1219">
@@ -16336,7 +16336,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1220">
@@ -16767,7 +16767,7 @@
     <row r="1252">
       <c r="B1252" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1252">
@@ -17006,7 +17006,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1270">
@@ -17089,7 +17089,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1276">
@@ -17115,7 +17115,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1278">
@@ -17128,7 +17128,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1279">
@@ -17174,7 +17174,7 @@
         <v>36</v>
       </c>
       <c r="D1282">
-        <v>0.0009609481354936871</v>
+        <v>0.0009609481354936872</v>
       </c>
     </row>
     <row r="1283">
@@ -17193,7 +17193,7 @@
     <row r="1284">
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1284">
@@ -17284,7 +17284,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1291">
@@ -17323,7 +17323,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1294">
@@ -17336,7 +17336,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1295">
@@ -17375,7 +17375,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1298">
@@ -17453,7 +17453,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1304">
@@ -17557,7 +17557,7 @@
     <row r="1312">
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1312">
@@ -17596,7 +17596,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1315">
@@ -17752,7 +17752,7 @@
     <row r="1327">
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1327">
@@ -17887,7 +17887,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1337">
@@ -17978,7 +17978,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1344">
@@ -18043,7 +18043,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1349">
@@ -18069,7 +18069,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1351">
@@ -18238,7 +18238,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1364">
@@ -18251,7 +18251,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1365">
@@ -18433,7 +18433,7 @@
     <row r="1379">
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1379">
@@ -18446,7 +18446,7 @@
     <row r="1380">
       <c r="B1380" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1380">
@@ -18498,7 +18498,7 @@
     <row r="1384">
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1384">
@@ -18511,7 +18511,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1385">
@@ -18524,7 +18524,7 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1386">
@@ -18628,7 +18628,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1394">
@@ -18693,7 +18693,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1399">
@@ -18706,7 +18706,7 @@
     <row r="1400">
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1400">
@@ -18758,7 +18758,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1404">
@@ -18797,7 +18797,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1407">
@@ -18849,7 +18849,7 @@
     <row r="1411">
       <c r="B1411" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1411">
@@ -18966,7 +18966,7 @@
     <row r="1420">
       <c r="B1420" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1420">
@@ -18979,7 +18979,7 @@
     <row r="1421">
       <c r="B1421" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1421">
@@ -19031,7 +19031,7 @@
     <row r="1425">
       <c r="B1425" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1425">
@@ -19135,7 +19135,7 @@
     <row r="1433">
       <c r="B1433" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1433">
@@ -19174,7 +19174,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1436">
@@ -19486,7 +19486,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1460">
@@ -19564,7 +19564,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1466">
@@ -19720,7 +19720,7 @@
     <row r="1478">
       <c r="B1478" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1478">
@@ -19733,7 +19733,7 @@
     <row r="1479">
       <c r="B1479" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1479">
@@ -19886,7 +19886,7 @@
     <row r="1490">
       <c r="B1490" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1490">
@@ -19951,7 +19951,7 @@
     <row r="1495">
       <c r="B1495" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1495">
@@ -19964,7 +19964,7 @@
     <row r="1496">
       <c r="B1496" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1496">
@@ -20075,7 +20075,7 @@
         <v>36</v>
       </c>
       <c r="D1504">
-        <v>0.0009609481354936871</v>
+        <v>0.0009609481354936872</v>
       </c>
     </row>
     <row r="1505">
@@ -20089,41 +20089,6 @@
       </c>
       <c r="D1505">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1507">
-      <c r="A1507" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="1508">
-      <c r="A1508" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1509">
-      <c r="A1509" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1510">
-      <c r="A1510" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1511">
-      <c r="A1511" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
